--- a/Source/Test/Data/Test9.xlsx
+++ b/Source/Test/Data/Test9.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Excel.Report.PDF\Source\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2718DE36-E8ED-4373-A134-D5EC524E814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFE355-9050-4C68-B9AB-CD15D14598CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="4890" windowWidth="23205" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="11535" windowWidth="31125" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,6 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -86,10 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -370,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -406,6 +421,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3">
+        <f>100 +200</f>
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
